--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
   <si>
     <t>土地坐落</t>
   </si>
@@ -153,6 +153,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -165,13 +168,13 @@
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公 司</t>
+    <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
     <t>長億實業股份有限公司</t>
   </si>
   <si>
-    <t>台新金融控股股份有限公 司</t>
+    <t>台新金融控股股份有限公司</t>
   </si>
   <si>
     <t>統一企業股份有限公司</t>
@@ -180,28 +183,31 @@
     <t>華隆股份有限公司</t>
   </si>
   <si>
-    <t>台灣積體電路製造股份有 限公司</t>
-  </si>
-  <si>
-    <t>兆豐票券金融股份有限公 司</t>
+    <t>台灣積體電路製造股份有限公司</t>
+  </si>
+  <si>
+    <t>兆豐票券金融股份有限公司</t>
   </si>
   <si>
     <t>台灣積體電路製造股份有</t>
   </si>
   <si>
-    <t>富邦金融控股股份有限公 司.</t>
+    <t>富邦金融控股股份有限公司.</t>
   </si>
   <si>
     <t>泰山企業股份有限公司</t>
   </si>
   <si>
-    <t>富邦金融控股股份有限公 司</t>
+    <t>富邦金融控股股份有限公司</t>
   </si>
   <si>
     <t>羅◦立</t>
   </si>
   <si>
-    <t>.46,990</t>
+    <t>.46990</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2013-12-31</t>
@@ -1016,13 +1022,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1050,13 +1056,16 @@
       <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1074,21 +1083,24 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1106,21 +1118,24 @@
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1138,21 +1153,24 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1170,21 +1188,24 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1202,21 +1223,24 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1234,21 +1258,24 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1266,21 +1293,24 @@
         <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -1298,21 +1328,24 @@
         <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
@@ -1330,21 +1363,24 @@
         <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1362,24 +1398,27 @@
         <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1394,21 +1433,24 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -1423,24 +1465,27 @@
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>36</v>
@@ -1458,21 +1503,24 @@
         <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <v>879</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -1490,12 +1538,15 @@
         <v>4480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <v>879</v>
       </c>
     </row>
@@ -1514,16 +1565,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1531,10 +1582,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -1546,10 +1597,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1563,16 +1614,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1593,19 +1644,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1613,22 +1664,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1636,22 +1687,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="94">
   <si>
     <t>土地坐落</t>
   </si>
@@ -156,6 +156,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -165,6 +168,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -210,7 +219,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>tmped981</t>
   </si>
   <si>
     <t>保險_公司</t>
@@ -1022,13 +1037,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1059,13 +1074,22 @@
       <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1083,24 +1107,33 @@
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1118,24 +1151,33 @@
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="2">
+        <v>879</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="2">
         <v>62</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="2">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1153,24 +1195,33 @@
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="2">
+        <v>879</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="2">
         <v>63</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="2">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1188,24 +1239,33 @@
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1223,24 +1283,33 @@
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="2">
+      <c r="L6" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1258,24 +1327,33 @@
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="M7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>36</v>
@@ -1293,24 +1371,33 @@
         <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>36</v>
@@ -1328,24 +1415,33 @@
         <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>37</v>
@@ -1363,24 +1459,33 @@
         <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>37</v>
@@ -1398,27 +1503,36 @@
         <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1433,24 +1547,33 @@
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N12" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>37</v>
@@ -1459,33 +1582,42 @@
         <v>4699</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="M13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>36</v>
@@ -1503,24 +1635,33 @@
         <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K14" s="2">
+      <c r="L14" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="M14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>36</v>
@@ -1538,16 +1679,25 @@
         <v>4480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="2">
+      <c r="L15" s="2">
         <v>879</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="2">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1565,16 +1715,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1582,10 +1732,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -1597,10 +1747,10 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1614,16 +1764,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1644,19 +1794,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1664,22 +1814,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1687,22 +1837,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,9 +19,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="94">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00050027±也號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08840000地號</t>
+  </si>
+  <si>
+    <t>量北rh中山區古朴段四小段08890000地號</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段08890001地號</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmped981</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,49 +135,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添 小段0005-0027 ±也號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0884-0000 地號</t>
-  </si>
-  <si>
-    <t>量北rh中山區古朴段四小段 0889-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 0889-0001 地號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>10000分之 44</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
-    <t>93年04月 08日</t>
-  </si>
-  <si>
-    <t>75年12月 04日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段 00638-000 建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添 小段00091 -000建號</t>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
   </si>
   <si>
     <t>2分之1</t>
@@ -108,7 +162,7 @@
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分 行</t>
+    <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
     <t>華南商業銀行華江分行</t>
@@ -126,21 +180,12 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>羅明才</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -153,27 +198,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
@@ -219,16 +243,7 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>tmped981</t>
-  </si>
-  <si>
-    <t>保險_公司</t>
+    <t>保險公司</t>
   </si>
   <si>
     <t>保險名稱</t>
@@ -276,13 +291,13 @@
     <t>房屋貸款</t>
   </si>
   <si>
-    <t>投 資 人</t>
+    <t>投資人</t>
   </si>
   <si>
     <t>投資事業名稱</t>
   </si>
   <si>
-    <t>台灣土地銀行 臺北市中正區館前路46號</t>
+    <t>台灣土地銀行臺北市中正區館前路46號</t>
   </si>
   <si>
     <t>投資事業地址</t>
@@ -291,16 +306,10 @@
     <t>投資金額</t>
   </si>
   <si>
-    <t>89年10月 25日</t>
-  </si>
-  <si>
-    <t>取得（發生） 時 間</t>
+    <t>89年10月25日</t>
   </si>
   <si>
     <t>抵押</t>
-  </si>
-  <si>
-    <t>取得（發生） 原 因</t>
   </si>
 </sst>
 </file>
@@ -659,13 +668,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -687,108 +696,213 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>879</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="2">
         <v>18</v>
       </c>
     </row>
@@ -807,25 +921,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -833,25 +947,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>36.35</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -859,25 +973,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>194.61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -895,19 +1009,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -915,16 +1029,16 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F2" s="2">
         <v>176</v>
@@ -935,16 +1049,16 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2">
         <v>809071</v>
@@ -955,16 +1069,16 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>53757</v>
@@ -975,16 +1089,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F5" s="2">
         <v>1304</v>
@@ -995,16 +1109,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="F6" s="2">
         <v>9887</v>
@@ -1015,16 +1129,16 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2">
         <v>491704</v>
@@ -1045,43 +1159,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1089,10 +1203,10 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>1000000</v>
@@ -1101,28 +1215,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N2" s="2">
         <v>61</v>
@@ -1133,10 +1247,10 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>885</v>
@@ -1145,28 +1259,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N3" s="2">
         <v>62</v>
@@ -1177,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>1956</v>
@@ -1189,28 +1303,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>63</v>
@@ -1221,10 +1335,10 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>6526</v>
@@ -1233,28 +1347,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2">
         <v>64</v>
@@ -1265,10 +1379,10 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>3313</v>
@@ -1277,28 +1391,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N6" s="2">
         <v>65</v>
@@ -1309,10 +1423,10 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>4</v>
@@ -1321,28 +1435,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2">
         <v>66</v>
@@ -1353,10 +1467,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2">
         <v>288327</v>
@@ -1365,28 +1479,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G8" s="2">
         <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N8" s="2">
         <v>67</v>
@@ -1397,10 +1511,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2">
         <v>264</v>
@@ -1409,28 +1523,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G9" s="2">
         <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N9" s="2">
         <v>68</v>
@@ -1441,10 +1555,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D10" s="2">
         <v>20664</v>
@@ -1453,28 +1567,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2">
         <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N10" s="2">
         <v>69</v>
@@ -1485,10 +1599,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2">
         <v>283327</v>
@@ -1497,28 +1611,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G11" s="2">
         <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N11" s="2">
         <v>70</v>
@@ -1529,10 +1643,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1541,28 +1655,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L12" s="2">
         <v>879</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2">
         <v>71</v>
@@ -1573,10 +1687,10 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="D13" s="2">
         <v>4699</v>
@@ -1585,28 +1699,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L13" s="2">
         <v>879</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2">
         <v>74</v>
@@ -1617,10 +1731,10 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2">
         <v>95000</v>
@@ -1629,28 +1743,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2">
         <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L14" s="2">
         <v>879</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2">
         <v>75</v>
@@ -1661,10 +1775,10 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2">
         <v>448</v>
@@ -1673,28 +1787,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="G15" s="2">
         <v>4480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="L15" s="2">
         <v>879</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2">
         <v>76</v>
@@ -1715,16 +1829,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1732,13 +1846,13 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1747,16 +1861,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1764,16 +1878,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1791,22 +1905,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1814,22 +1928,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1837,22 +1951,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
   <si>
     <t>name</t>
   </si>
@@ -63,7 +63,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00050027±也號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
@@ -75,93 +78,63 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>10000分之44</t>
+  </si>
+  <si>
+    <t>黃靜秋</t>
+  </si>
+  <si>
+    <t>75年12月04日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>羅明才</t>
+  </si>
+  <si>
+    <t>tmped981</t>
+  </si>
+  <si>
+    <t>臺北市中山區吉林段四小段00638000建號</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>10000分之44</t>
-  </si>
-  <si>
-    <t>黃靜秋</t>
-  </si>
-  <si>
     <t>93年04月08日</t>
   </si>
   <si>
-    <t>75年12月04日</t>
-  </si>
-  <si>
     <t>受贈</t>
   </si>
   <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-12-31</t>
-  </si>
-  <si>
-    <t>羅明才</t>
-  </si>
-  <si>
-    <t>tmped981</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中山區吉林段四小段00638000建號</t>
-  </si>
-  <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
     <t>中國信託商業銀行板橋分行</t>
   </si>
   <si>
@@ -171,15 +144,9 @@
     <t>華南商業銀行文山分行</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>活期存政</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
@@ -195,27 +162,24 @@
     <t>currency</t>
   </si>
   <si>
-    <t>total</t>
+    <t>國泰金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>長億實業股份有限公司</t>
+  </si>
+  <si>
+    <t>台新金融控股股份有限公司</t>
+  </si>
+  <si>
+    <t>統一企業股份有限公司</t>
+  </si>
+  <si>
+    <t>華隆股份有限公司</t>
   </si>
   <si>
     <t>旭能光電股份有限公司</t>
   </si>
   <si>
-    <t>國泰金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>長億實業股份有限公司</t>
-  </si>
-  <si>
-    <t>台新金融控股股份有限公司</t>
-  </si>
-  <si>
-    <t>統一企業股份有限公司</t>
-  </si>
-  <si>
-    <t>華隆股份有限公司</t>
-  </si>
-  <si>
     <t>台灣積體電路製造股份有限公司</t>
   </si>
   <si>
@@ -243,27 +207,15 @@
     <t>stock</t>
   </si>
   <si>
-    <t>保險公司</t>
-  </si>
-  <si>
-    <t>保險名稱</t>
-  </si>
-  <si>
-    <t>要保人</t>
-  </si>
-  <si>
-    <t>備註</t>
-  </si>
-  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>鍾愛一生313</t>
+  </si>
+  <si>
     <t>保德信國際人壽</t>
   </si>
   <si>
-    <t>鍾愛一生313</t>
-  </si>
-  <si>
     <t>教育終身壽險</t>
   </si>
   <si>
@@ -273,43 +225,34 @@
     <t>羅◦偉</t>
   </si>
   <si>
-    <t>債務人</t>
-  </si>
-  <si>
-    <t>債權人及地址</t>
-  </si>
-  <si>
-    <t>餘額</t>
+    <t>房屋貸款</t>
+  </si>
+  <si>
+    <t>台灣土地銀行臺北市中正區館前路46號</t>
+  </si>
+  <si>
+    <t>89年10月25日</t>
+  </si>
+  <si>
+    <t>抵押</t>
+  </si>
+  <si>
+    <t>投資人</t>
+  </si>
+  <si>
+    <t>投資事業名稱</t>
+  </si>
+  <si>
+    <t>投資事業地址</t>
+  </si>
+  <si>
+    <t>投資金額</t>
   </si>
   <si>
     <t>取得（發生）時間</t>
   </si>
   <si>
     <t>取得（發生）原因</t>
-  </si>
-  <si>
-    <t>房屋貸款</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>台灣土地銀行臺北市中正區館前路46號</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>89年10月25日</t>
-  </si>
-  <si>
-    <t>抵押</t>
   </si>
 </sst>
 </file>
@@ -668,13 +611,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,19 +660,25 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>214</v>
+        <v>404</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -738,42 +687,48 @@
         <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.7776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>404</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>19</v>
@@ -782,45 +737,51 @@
         <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>19</v>
@@ -829,81 +790,40 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1">
         <v>18</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2">
-        <v>879</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="2">
-        <v>18</v>
+      <c r="P4" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.0176</v>
       </c>
     </row>
   </sheetData>
@@ -913,7 +833,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -921,77 +841,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="C1" s="1">
+        <v>36.35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
-        <v>36.35</v>
+        <v>194.61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2">
-        <v>194.61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +895,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1009,138 +903,118 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="F1" s="1">
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
-        <v>176</v>
+        <v>809071</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <v>809071</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="F4" s="2">
-        <v>53757</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F5" s="2">
-        <v>1304</v>
+        <v>9887</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
-        <v>9887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>54</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2">
         <v>491704</v>
       </c>
     </row>
@@ -1151,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1165,16 +1039,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1200,617 +1074,573 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="2">
-        <v>1000000</v>
+        <v>885</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
-        <v>10000000</v>
+        <v>8850</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N2" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="2">
-        <v>885</v>
+        <v>1956</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
-        <v>8850</v>
+        <v>19560</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N3" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2">
-        <v>1956</v>
+        <v>6526</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
-        <v>19560</v>
+        <v>65260</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N4" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>6526</v>
+        <v>3313</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
-        <v>65260</v>
+        <v>33130</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N5" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="2">
-        <v>3313</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
-        <v>33130</v>
+        <v>40</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N6" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2">
-        <v>4</v>
+        <v>288327</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2">
-        <v>40</v>
+        <v>2883270</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N7" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
-        <v>288327</v>
+        <v>264</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
-        <v>2883270</v>
+        <v>2640</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N8" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>264</v>
+        <v>20664</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
-        <v>2640</v>
+        <v>206640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N9" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2">
-        <v>20664</v>
+        <v>283327</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
-        <v>206640</v>
+        <v>2833270</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D11" s="2">
-        <v>283327</v>
+        <v>3264</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2">
-        <v>2833270</v>
+        <v>32640</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N11" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2">
-        <v>3264</v>
+        <v>4699</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="2">
-        <v>32640</v>
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L12" s="2">
         <v>879</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N12" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2">
-        <v>4699</v>
+        <v>95000</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="G13" s="2">
+        <v>950000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L13" s="2">
         <v>879</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N13" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
-        <v>95000</v>
+        <v>448</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
-        <v>950000</v>
+        <v>4480</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L14" s="2">
         <v>879</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N14" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2">
-        <v>448</v>
-      </c>
-      <c r="E15" s="2">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="2">
-        <v>4480</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="L15" s="2">
-        <v>879</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N15" s="2">
         <v>76</v>
       </c>
     </row>
@@ -1821,7 +1651,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1829,65 +1659,48 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>103</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1897,7 +1710,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1905,68 +1718,45 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1294341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1294341</v>
+        <v>74</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -69,6 +69,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00050027±也號</t>
+  </si>
+  <si>
     <t>臺北市中山區吉林段四小段08840000地號</t>
   </si>
   <si>
@@ -78,15 +81,24 @@
     <t>臺北市中山區吉林段四小段08890001地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>10000分之44</t>
   </si>
   <si>
     <t>黃靜秋</t>
   </si>
   <si>
+    <t>93年04月08日</t>
+  </si>
+  <si>
     <t>75年12月04日</t>
   </si>
   <si>
+    <t>受贈</t>
+  </si>
+  <si>
     <t>買賣</t>
   </si>
   <si>
@@ -111,21 +123,12 @@
     <t>臺北市中山區吉林段四小段00638000建號</t>
   </si>
   <si>
+    <t>新北市三峽區十三添段十三添小段00091000建號</t>
+  </si>
+  <si>
     <t>2分之1</t>
   </si>
   <si>
-    <t>新北市三峽區十三添段十三添小段00091000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>93年04月08日</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>旭能光電股份有限公司</t>
+  </si>
+  <si>
     <t>國泰金融控股股份有限公司</t>
   </si>
   <si>
@@ -175,9 +181,6 @@
   </si>
   <si>
     <t>華隆股份有限公司</t>
-  </si>
-  <si>
-    <t>旭能光電股份有限公司</t>
   </si>
   <si>
     <t>台灣積體電路製造股份有限公司</t>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -669,160 +672,213 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>404</v>
+        <v>214</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2">
         <v>879</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P2" s="2">
-        <v>0.0044</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>1.7776</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>150</v>
+        <v>404</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M3" s="2">
         <v>879</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P3" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q3" s="2">
-        <v>0.66</v>
+        <v>1.7776</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>4</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M4" s="2">
         <v>879</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P4" s="2">
         <v>0.0044</v>
       </c>
       <c r="Q4" s="2">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2">
+        <v>879</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0044</v>
+      </c>
+      <c r="Q5" s="2">
         <v>0.0176</v>
       </c>
     </row>
@@ -833,59 +889,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>36.35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="1">
-        <v>36.35</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="2">
+        <v>879</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>23</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>18.175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>194.61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="2">
+        <v>879</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
         <v>194.61</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -895,7 +1058,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -903,16 +1066,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1">
         <v>176</v>
@@ -920,101 +1083,121 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
-        <v>809071</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2">
-        <v>53757</v>
+        <v>809071</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2">
-        <v>1304</v>
+        <v>53757</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F5" s="2">
-        <v>9887</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
+        <v>53</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9887</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
         <v>54</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="2">
         <v>491704</v>
       </c>
     </row>
@@ -1025,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1039,13 +1222,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1074,315 +1257,315 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
-        <v>885</v>
+        <v>1000000</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2">
-        <v>8850</v>
+        <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2">
         <v>879</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>1956</v>
+        <v>885</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2">
-        <v>19560</v>
+        <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2">
         <v>879</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N3" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="2">
-        <v>6526</v>
+        <v>1956</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2">
-        <v>65260</v>
+        <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L4" s="2">
         <v>879</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N4" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
-        <v>3313</v>
+        <v>6526</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2">
-        <v>33130</v>
+        <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2">
         <v>879</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N5" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2">
-        <v>4</v>
+        <v>3313</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
-        <v>40</v>
+        <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L6" s="2">
         <v>879</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N6" s="2">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2">
-        <v>288327</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2">
-        <v>2883270</v>
+        <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L7" s="2">
         <v>879</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N7" s="2">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>264</v>
+        <v>288327</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2">
-        <v>2640</v>
+        <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L8" s="2">
         <v>879</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N8" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>54</v>
@@ -1391,256 +1574,300 @@
         <v>43</v>
       </c>
       <c r="D9" s="2">
-        <v>20664</v>
+        <v>264</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2">
-        <v>206640</v>
+        <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L9" s="2">
         <v>879</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N9" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>283327</v>
+        <v>20664</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="2">
-        <v>2833270</v>
+        <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L10" s="2">
         <v>879</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N10" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2">
-        <v>3264</v>
+        <v>283327</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G11" s="2">
-        <v>32640</v>
+        <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L11" s="2">
         <v>879</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N11" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2">
-        <v>4699</v>
+        <v>3264</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>60</v>
+        <v>38</v>
+      </c>
+      <c r="G12" s="2">
+        <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L12" s="2">
         <v>879</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N12" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2">
-        <v>95000</v>
+        <v>4699</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="2">
-        <v>950000</v>
+        <v>38</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L13" s="2">
         <v>879</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N13" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
-        <v>448</v>
+        <v>95000</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14" s="2">
-        <v>4480</v>
+        <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L14" s="2">
         <v>879</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N14" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2">
+        <v>448</v>
+      </c>
+      <c r="E15" s="2">
+        <v>10</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="2">
+        <v>4480</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="2">
+        <v>879</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" s="2">
         <v>76</v>
       </c>
     </row>
@@ -1651,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1659,48 +1886,63 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1710,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1718,45 +1960,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1">
         <v>1294341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
+        <v>113</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1294341</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>115</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -127,6 +127,9 @@
   </si>
   <si>
     <t>2分之1</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>玉山商業銀行北新分行</t>
@@ -971,7 +974,7 @@
         <v>27</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>29</v>
@@ -1024,7 +1027,7 @@
         <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>29</v>
@@ -1066,13 +1069,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
@@ -1086,13 +1089,13 @@
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1106,13 +1109,13 @@
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1126,13 +1129,13 @@
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1146,16 +1149,16 @@
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2">
         <v>1304</v>
@@ -1166,16 +1169,16 @@
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2">
         <v>9887</v>
@@ -1186,13 +1189,13 @@
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
@@ -1222,13 +1225,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1260,7 +1263,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1272,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1304,7 +1307,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1316,13 +1319,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1348,7 +1351,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1360,13 +1363,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1392,7 +1395,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1404,13 +1407,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1436,7 +1439,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1448,13 +1451,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1480,7 +1483,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1492,13 +1495,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -1524,10 +1527,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="2">
         <v>288327</v>
@@ -1536,13 +1539,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -1568,10 +1571,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9" s="2">
         <v>264</v>
@@ -1580,13 +1583,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -1612,10 +1615,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2">
         <v>20664</v>
@@ -1624,13 +1627,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -1656,10 +1659,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2">
         <v>283327</v>
@@ -1668,13 +1671,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2">
         <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -1700,10 +1703,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1712,13 +1715,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -1744,10 +1747,10 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2">
         <v>4699</v>
@@ -1756,13 +1759,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -1788,10 +1791,10 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="2">
         <v>95000</v>
@@ -1800,13 +1803,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
@@ -1832,10 +1835,10 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2">
         <v>448</v>
@@ -1844,13 +1847,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2">
         <v>4480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
@@ -1886,10 +1889,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1901,10 +1904,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1916,16 +1919,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1933,16 +1936,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1960,22 +1963,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1">
         <v>1294341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1983,22 +1986,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2006,22 +2009,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="83">
   <si>
     <t>name</t>
   </si>
@@ -132,40 +132,49 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>玉山商業銀行北新分行</t>
   </si>
   <si>
+    <t>中國信託商業銀行板橋分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行華江分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行文山分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>活期存政</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>中國信託商業銀行板橋分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行華江分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行文山分行</t>
-  </si>
-  <si>
-    <t>活期存政</t>
-  </si>
-  <si>
     <t>羅〇偉</t>
   </si>
   <si>
     <t>羅〇立</t>
   </si>
   <si>
+    <t>deposit</t>
+  </si>
+  <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>旭能光電股份有限公司</t>
@@ -1061,13 +1070,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1078,24 +1087,45 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="1">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>31</v>
@@ -1103,19 +1133,40 @@
       <c r="F2" s="2">
         <v>176</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2">
+        <v>879</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>50</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
@@ -1123,19 +1174,40 @@
       <c r="F3" s="2">
         <v>809071</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2">
+        <v>879</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>51</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1143,65 +1215,149 @@
       <c r="F4" s="2">
         <v>53757</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2">
+        <v>879</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F5" s="2">
         <v>1304</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="2">
+        <v>879</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F6" s="2">
         <v>9887</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2">
+        <v>879</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="2">
         <v>491704</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="2">
+        <v>879</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1225,13 +1381,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1263,7 +1419,7 @@
         <v>61</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1275,13 +1431,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2">
         <v>10000000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>29</v>
@@ -1307,7 +1463,7 @@
         <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1319,13 +1475,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2">
         <v>8850</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -1351,7 +1507,7 @@
         <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1363,13 +1519,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2">
         <v>19560</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>29</v>
@@ -1395,7 +1551,7 @@
         <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1407,13 +1563,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2">
         <v>65260</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>29</v>
@@ -1439,7 +1595,7 @@
         <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1451,13 +1607,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2">
         <v>33130</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>29</v>
@@ -1483,7 +1639,7 @@
         <v>66</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1495,13 +1651,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2">
         <v>40</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>29</v>
@@ -1527,10 +1683,10 @@
         <v>67</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2">
         <v>288327</v>
@@ -1539,13 +1695,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2">
         <v>2883270</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>29</v>
@@ -1571,10 +1727,10 @@
         <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <v>264</v>
@@ -1583,13 +1739,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2">
         <v>2640</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>29</v>
@@ -1615,10 +1771,10 @@
         <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
         <v>20664</v>
@@ -1627,13 +1783,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>206640</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>29</v>
@@ -1659,10 +1815,10 @@
         <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2">
         <v>283327</v>
@@ -1671,13 +1827,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2">
         <v>2833270</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>29</v>
@@ -1703,10 +1859,10 @@
         <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D12" s="2">
         <v>3264</v>
@@ -1715,13 +1871,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G12" s="2">
         <v>32640</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>29</v>
@@ -1747,10 +1903,10 @@
         <v>74</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2">
         <v>4699</v>
@@ -1759,13 +1915,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>29</v>
@@ -1791,10 +1947,10 @@
         <v>75</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2">
         <v>95000</v>
@@ -1803,13 +1959,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2">
         <v>950000</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>29</v>
@@ -1835,10 +1991,10 @@
         <v>76</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2">
         <v>448</v>
@@ -1847,13 +2003,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G15" s="2">
         <v>4480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
@@ -1889,10 +2045,10 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1904,10 +2060,10 @@
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1919,16 +2075,16 @@
         <v>102</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1936,16 +2092,16 @@
         <v>103</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1963,22 +2119,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1">
         <v>1294341</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1986,22 +2142,22 @@
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2009,22 +2165,22 @@
         <v>115</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
+++ b/legislator/property/output/normal/羅明才_2013-12-31_財產申報表_tmped981.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -222,22 +222,31 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>保德信國際人壽</t>
+  </si>
+  <si>
     <t>鍾愛一生313</t>
   </si>
   <si>
-    <t>保德信國際人壽</t>
-  </si>
-  <si>
     <t>教育終身壽險</t>
   </si>
   <si>
     <t>教育终身壽險</t>
   </si>
   <si>
-    <t>羅◦偉</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>房屋貸款</t>
@@ -252,22 +261,7 @@
     <t>抵押</t>
   </si>
   <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
+    <t>debt</t>
   </si>
 </sst>
 </file>
@@ -2037,40 +2031,80 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>101</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2">
+        <v>879</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -2078,16 +2112,34 @@
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>73</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2">
+        <v>879</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -2095,13 +2147,31 @@
         <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2">
+        <v>879</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2111,76 +2181,95 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1294341</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>1294341</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>115</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>82</v>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2">
+        <v>879</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
